--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,70 +82,82 @@
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>corona</t>
@@ -503,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,7 +608,7 @@
         <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -622,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4497354497354497</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -672,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.436046511627907</v>
+        <v>0.4612403100775194</v>
       </c>
       <c r="C5">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2953020134228188</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1587301587301587</v>
+        <v>0.3087248322147651</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -822,37 +837,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.09139784946236559</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>338</v>
+        <v>215</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -872,37 +887,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01391585760517799</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="F9">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>3047</v>
+        <v>345</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8207547169811321</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -914,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -922,28 +937,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01318267419962335</v>
+        <v>0.02036857419980601</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="F10">
-        <v>0.6</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>2096</v>
+        <v>3030</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0.8055555555555556</v>
@@ -968,17 +983,41 @@
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.01319509896324222</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>0.43</v>
+      </c>
+      <c r="F11">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2094</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -990,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1016,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1042,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
         <v>28</v>
       </c>
-      <c r="K14">
-        <v>0.7746478873239436</v>
-      </c>
-      <c r="L14">
-        <v>110</v>
-      </c>
       <c r="M14">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1068,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1094,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.76875</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L16">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1120,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.746031746031746</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1146,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.725</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1177,16 +1216,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6411764705882353</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1198,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1224,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1250,47 +1289,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6326530612244898</v>
+        <v>0.68</v>
       </c>
       <c r="L22">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1302,12 +1341,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>0.5983263598326359</v>
@@ -1333,16 +1372,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5957446808510638</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1354,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5857142857142857</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1380,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5617977528089888</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1406,59 +1445,163 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4027777777777778</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L29">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>37</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L31">
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>43</v>
       </c>
-      <c r="K29">
-        <v>0.01697579377554228</v>
-      </c>
-      <c r="L29">
-        <v>54</v>
-      </c>
-      <c r="M29">
-        <v>74</v>
-      </c>
-      <c r="N29">
-        <v>0.73</v>
-      </c>
-      <c r="O29">
-        <v>0.27</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>3127</v>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>0.0289210233592881</v>
+      </c>
+      <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>0.93</v>
+      </c>
+      <c r="O32">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>0.01413760603204524</v>
+      </c>
+      <c r="L33">
+        <v>45</v>
+      </c>
+      <c r="M33">
+        <v>63</v>
+      </c>
+      <c r="N33">
+        <v>0.71</v>
+      </c>
+      <c r="O33">
+        <v>0.29</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3138</v>
       </c>
     </row>
   </sheetData>
